--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H2">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I2">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J2">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N2">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q2">
-        <v>10.18926075209533</v>
+        <v>20.29532930997922</v>
       </c>
       <c r="R2">
-        <v>91.70334676885798</v>
+        <v>182.657963789813</v>
       </c>
       <c r="S2">
-        <v>0.04218501981606463</v>
+        <v>0.05001587737187314</v>
       </c>
       <c r="T2">
-        <v>0.04218501981606463</v>
+        <v>0.05001587737187315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H3">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I3">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J3">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.013535</v>
       </c>
       <c r="O3">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P3">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q3">
-        <v>0.01111982362333333</v>
+        <v>0.04253012666277777</v>
       </c>
       <c r="R3">
-        <v>0.10007841261</v>
+        <v>0.382771139965</v>
       </c>
       <c r="S3">
-        <v>4.603768529576554E-05</v>
+        <v>0.0001048113862695389</v>
       </c>
       <c r="T3">
-        <v>4.603768529576554E-05</v>
+        <v>0.0001048113862695389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H4">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I4">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J4">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N4">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O4">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P4">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q4">
-        <v>7.320839193675333</v>
+        <v>33.498823629163</v>
       </c>
       <c r="R4">
-        <v>65.88755274307799</v>
+        <v>301.489412662467</v>
       </c>
       <c r="S4">
-        <v>0.03030933783806724</v>
+        <v>0.08255461289383426</v>
       </c>
       <c r="T4">
-        <v>0.03030933783806724</v>
+        <v>0.08255461289383426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H5">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I5">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J5">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N5">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O5">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P5">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q5">
-        <v>33.08123291902</v>
+        <v>144.1876464414114</v>
       </c>
       <c r="R5">
-        <v>297.73109627118</v>
+        <v>1297.688817972703</v>
       </c>
       <c r="S5">
-        <v>0.13696111034765</v>
+        <v>0.3553365177182246</v>
       </c>
       <c r="T5">
-        <v>0.13696111034765</v>
+        <v>0.3553365177182246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H6">
         <v>23.950568</v>
       </c>
       <c r="I6">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J6">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N6">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O6">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P6">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q6">
-        <v>33.00474226327377</v>
+        <v>17.18822358864622</v>
       </c>
       <c r="R6">
-        <v>297.042680369464</v>
+        <v>154.694012297816</v>
       </c>
       <c r="S6">
-        <v>0.1366444279202487</v>
+        <v>0.04235871564928782</v>
       </c>
       <c r="T6">
-        <v>0.1366444279202488</v>
+        <v>0.04235871564928783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H7">
         <v>23.950568</v>
       </c>
       <c r="I7">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J7">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.013535</v>
       </c>
       <c r="O7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q7">
-        <v>0.03601899309777778</v>
+        <v>0.03601899309777777</v>
       </c>
       <c r="R7">
         <v>0.32417093788</v>
       </c>
       <c r="S7">
-        <v>0.0001491238642874054</v>
+        <v>8.876532695387156E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001491238642874054</v>
+        <v>8.876532695387156E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H8">
         <v>23.950568</v>
       </c>
       <c r="I8">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J8">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N8">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O8">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P8">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q8">
-        <v>23.71343874858044</v>
+        <v>28.370333967016</v>
       </c>
       <c r="R8">
-        <v>213.420948737224</v>
+        <v>255.333005703144</v>
       </c>
       <c r="S8">
-        <v>0.09817708152283641</v>
+        <v>0.06991594583270214</v>
       </c>
       <c r="T8">
-        <v>0.09817708152283643</v>
+        <v>0.06991594583270214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H9">
         <v>23.950568</v>
       </c>
       <c r="I9">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J9">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N9">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O9">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P9">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q9">
-        <v>107.1557194194933</v>
+        <v>122.1132935515884</v>
       </c>
       <c r="R9">
-        <v>964.40147477544</v>
+        <v>1099.019641964296</v>
       </c>
       <c r="S9">
-        <v>0.4436402460489014</v>
+        <v>0.3009364086912688</v>
       </c>
       <c r="T9">
-        <v>0.4436402460489015</v>
+        <v>0.3009364086912688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H10">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I10">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J10">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N10">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O10">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P10">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q10">
-        <v>5.192115390899445</v>
+        <v>3.911033339065445</v>
       </c>
       <c r="R10">
-        <v>46.729038518095</v>
+        <v>35.19930005158901</v>
       </c>
       <c r="S10">
-        <v>0.02149611203220466</v>
+        <v>0.009638363630188621</v>
       </c>
       <c r="T10">
-        <v>0.02149611203220466</v>
+        <v>0.009638363630188622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H11">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I11">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J11">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.013535</v>
       </c>
       <c r="O11">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P11">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q11">
-        <v>0.005666299919444445</v>
+        <v>0.008195813960555557</v>
       </c>
       <c r="R11">
-        <v>0.050996699275</v>
+        <v>0.073762325645</v>
       </c>
       <c r="S11">
-        <v>2.345930487021586E-05</v>
+        <v>2.019779131212591E-05</v>
       </c>
       <c r="T11">
-        <v>2.345930487021586E-05</v>
+        <v>2.019779131212591E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H12">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I12">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J12">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N12">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O12">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P12">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q12">
-        <v>3.730461196016112</v>
+        <v>6.455426962139001</v>
       </c>
       <c r="R12">
-        <v>33.574150764145</v>
+        <v>58.09884265925101</v>
       </c>
       <c r="S12">
-        <v>0.0154446513153212</v>
+        <v>0.01590877577742336</v>
       </c>
       <c r="T12">
-        <v>0.0154446513153212</v>
+        <v>0.01590877577742336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H13">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I13">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J13">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N13">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O13">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P13">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q13">
-        <v>16.85711876138333</v>
+        <v>27.78583602663989</v>
       </c>
       <c r="R13">
-        <v>151.71406885245</v>
+        <v>250.072524239759</v>
       </c>
       <c r="S13">
-        <v>0.06979092068523968</v>
+        <v>0.06847550715523809</v>
       </c>
       <c r="T13">
-        <v>0.06979092068523968</v>
+        <v>0.06847550715523809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H14">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I14">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J14">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N14">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O14">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P14">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q14">
-        <v>0.2496215550209999</v>
+        <v>0.1931960749816667</v>
       </c>
       <c r="R14">
-        <v>2.246593995188999</v>
+        <v>1.738764674835</v>
       </c>
       <c r="S14">
-        <v>0.001033469502967847</v>
+        <v>0.0004761130527829875</v>
       </c>
       <c r="T14">
-        <v>0.001033469502967847</v>
+        <v>0.0004761130527829875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H15">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I15">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J15">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.013535</v>
       </c>
       <c r="O15">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P15">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q15">
-        <v>0.0002724189449999999</v>
+        <v>0.0004048544083333334</v>
       </c>
       <c r="R15">
-        <v>0.002451770505</v>
+        <v>0.003643689675</v>
       </c>
       <c r="S15">
-        <v>1.127854009500462E-06</v>
+        <v>9.97724556787839E-07</v>
       </c>
       <c r="T15">
-        <v>1.127854009500462E-06</v>
+        <v>9.97724556787839E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H16">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I16">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J16">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N16">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O16">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P16">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q16">
-        <v>0.179349543411</v>
+        <v>0.318883283085</v>
       </c>
       <c r="R16">
-        <v>1.614145890699</v>
+        <v>2.869949547765001</v>
       </c>
       <c r="S16">
-        <v>0.0007425331657391655</v>
+        <v>0.0007858570284384313</v>
       </c>
       <c r="T16">
-        <v>0.0007425331657391655</v>
+        <v>0.0007858570284384313</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H17">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I17">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J17">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N17">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O17">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P17">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q17">
-        <v>0.8104404239099997</v>
+        <v>1.372556558598333</v>
       </c>
       <c r="R17">
-        <v>7.293963815189998</v>
+        <v>12.353009027385</v>
       </c>
       <c r="S17">
-        <v>0.003355341096296177</v>
+        <v>0.003382532969645356</v>
       </c>
       <c r="T17">
-        <v>0.003355341096296177</v>
+        <v>0.003382532969645356</v>
       </c>
     </row>
   </sheetData>
